--- a/branches/master/ValueSet-whoatc-unicom.xlsx
+++ b/branches/master/ValueSet-whoatc-unicom.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-04T17:38:22+00:00</t>
+    <t>2022-11-05T08:06:07+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/ValueSet-whoatc-unicom.xlsx
+++ b/branches/master/ValueSet-whoatc-unicom.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-05T08:06:07+00:00</t>
+    <t>2022-11-05T08:06:02+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/ValueSet-whoatc-unicom.xlsx
+++ b/branches/master/ValueSet-whoatc-unicom.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-05T08:06:02+00:00</t>
+    <t>2022-11-05T08:06:39+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/ValueSet-whoatc-unicom.xlsx
+++ b/branches/master/ValueSet-whoatc-unicom.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-05T08:06:39+00:00</t>
+    <t>2022-11-07T08:33:24+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/ValueSet-whoatc-unicom.xlsx
+++ b/branches/master/ValueSet-whoatc-unicom.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-07T08:33:24+00:00</t>
+    <t>2022-11-07T08:35:45+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/ValueSet-whoatc-unicom.xlsx
+++ b/branches/master/ValueSet-whoatc-unicom.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-07T08:35:45+00:00</t>
+    <t>2022-11-07T08:36:34+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/ValueSet-whoatc-unicom.xlsx
+++ b/branches/master/ValueSet-whoatc-unicom.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-07T08:36:34+00:00</t>
+    <t>2022-11-09T19:33:22+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/ValueSet-whoatc-unicom.xlsx
+++ b/branches/master/ValueSet-whoatc-unicom.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-09T19:33:22+00:00</t>
+    <t>2022-11-19T07:23:03+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/ValueSet-whoatc-unicom.xlsx
+++ b/branches/master/ValueSet-whoatc-unicom.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-19T07:23:03+00:00</t>
+    <t>2022-11-25T20:12:11+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/ValueSet-whoatc-unicom.xlsx
+++ b/branches/master/ValueSet-whoatc-unicom.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-25T20:12:11+00:00</t>
+    <t>2022-11-25T20:28:13+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/ValueSet-whoatc-unicom.xlsx
+++ b/branches/master/ValueSet-whoatc-unicom.xlsx
@@ -24,7 +24,7 @@
     <t>URL</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/uv/ips/ValueSet/whoatc-uv-ips</t>
+    <t>http://unicom-project.eu/fhir/ValueSet/whoatc-unicom</t>
   </si>
   <si>
     <t>Version</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-25T20:28:13+00:00</t>
+    <t>2023-06-29T18:56:17+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -230,10 +230,10 @@
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyBorder="true" applyFill="true" applyAlignment="true" applyFont="true">
       <alignment vertical="top" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true" applyAlignment="true">
       <alignment vertical="top" wrapText="true"/>
     </xf>
   </cellXfs>
